--- a/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>lucky</t>
-  </si>
-  <si>
-    <t>KEY</t>
   </si>
   <si>
     <t>达伦·琼斯</t>
@@ -113,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +125,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -141,18 +175,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,6 +214,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -172,6 +237,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -179,100 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,19 +283,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +349,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,127 +433,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +581,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,26 +652,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -669,174 +672,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,10 +1264,10 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1442,9 +1432,7 @@
       <c r="O4" s="12"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1465,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -1502,10 +1490,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="14">
         <v>3</v>
@@ -1558,14 +1546,14 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>int</t>
@@ -111,9 +108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,14 +122,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,8 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -175,17 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,8 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,40 +236,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +280,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,84 +442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,72 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,24 +578,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +597,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,52 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,7 +1264,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1337,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>10</v>
@@ -1359,34 +1356,34 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1396,34 +1393,34 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1453,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -1490,10 +1487,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="14">
         <v>3</v>
@@ -1546,11 +1543,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
       <formula1>"KEY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
-      <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13065"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -48,6 +48,9 @@
     <t>幸运</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -90,10 +93,16 @@
     <t>lucky</t>
   </si>
   <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
     <t>达伦·琼斯</t>
   </si>
   <si>
     <t>罪犯，佣兵</t>
+  </si>
+  <si>
+    <t>prefab/1</t>
   </si>
   <si>
     <t>布伦达·威尔逊</t>
@@ -107,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -122,9 +131,131 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,128 +267,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -280,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +587,80 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,81 +684,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,10 +1270,10 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1311,7 +1320,9 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1319,36 +1330,38 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1356,36 +1369,38 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -1393,36 +1408,38 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1450,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -1476,7 +1493,9 @@
       <c r="J6" s="13">
         <v>4</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -1487,10 +1506,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="14">
         <v>3</v>
@@ -1513,7 +1532,9 @@
       <c r="J7" s="13">
         <v>3</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -1523,34 +1544,39 @@
       <c r="L9" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A4:$XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="cellIs" priority="2" operator="equal">
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD3 A2:N3">
-    <cfRule type="cellIs" priority="6" operator="equal">
+  <conditionalFormatting sqref="$A4:$XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="cellIs" priority="3" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:XFD3 L2:N3 A2:J3 K3">
+    <cfRule type="cellIs" priority="7" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:XFD4 A4:N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3 L3:XFD3">
+      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:J2 K2 L2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
       <formula1>"KEY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
-      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CharacterCards.xlsx
@@ -102,7 +102,7 @@
     <t>罪犯，佣兵</t>
   </si>
   <si>
-    <t>prefab/1</t>
+    <t>prefab/Character</t>
   </si>
   <si>
     <t>布伦达·威尔逊</t>
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,10 +130,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,15 +177,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,21 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,23 +223,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,17 +253,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,29 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -289,73 +289,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,6 +451,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,96 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +587,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +630,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -621,50 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,8 +672,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,7 +1273,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1569,14 +1569,14 @@
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3 L3:XFD3">
-      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:J2 K2 L2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
       <formula1>"KEY"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3 L3:XFD3">
+      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
